--- a/emplamedata/Лист Microsoft Excel.xlsx
+++ b/emplamedata/Лист Microsoft Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21039\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21039\Desktop\forward\emplamedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7EEE90D-E038-4295-8912-A6F7A5C14616}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E748C0-7894-47F2-971B-D91E32F1777B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +510,7 @@
         <v>2000</v>
       </c>
       <c r="D2">
-        <v>12345678910</v>
+        <v>1234</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -560,7 +560,7 @@
         <v>2019</v>
       </c>
       <c r="D3">
-        <v>111222333444</v>
+        <v>12334</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
